--- a/plugin/saiadmin/public/export/科技人员.xlsx
+++ b/plugin/saiadmin/public/export/科技人员.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -34,6 +34,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <b/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,9 +74,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -83,7 +91,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D52"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="true"/>
     <col min="2" max="2" width="15" customWidth="true"/>
@@ -115,6 +123,826 @@
         </is>
       </c>
     </row>
+    <row r="2" spans="1:4" customHeight="0">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>王胜铎</t>
+        </is>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>15034967101</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>1995-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customHeight="0">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>李思博</t>
+        </is>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>18548029596</t>
+        </is>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" customHeight="0">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>左婉雪</t>
+        </is>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18004317353</t>
+        </is>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" customHeight="0">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>贺佩琰</t>
+        </is>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15661558689</t>
+        </is>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" customHeight="0">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>杨国英</t>
+        </is>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18004892175</t>
+        </is>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" customHeight="0">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>云海军</t>
+        </is>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13347104770</t>
+        </is>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" customHeight="0">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>张瑞玖</t>
+        </is>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13904716139</t>
+        </is>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" customHeight="0">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>王婉莹</t>
+        </is>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15326097720</t>
+        </is>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" customHeight="0">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>冯帆</t>
+        </is>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18686010779</t>
+        </is>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" customHeight="0">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>翟殷华</t>
+        </is>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15354874693</t>
+        </is>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" customHeight="0">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>马来刚</t>
+        </is>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13347137077</t>
+        </is>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" customHeight="0">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>田耀武</t>
+        </is>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18049221521</t>
+        </is>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" customHeight="0">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>曹少飞</t>
+        </is>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18647390621</t>
+        </is>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" customHeight="0">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>张雨博</t>
+        </is>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>15332975807</t>
+        </is>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" customHeight="0">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>李婷婷</t>
+        </is>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15148039951</t>
+        </is>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" customHeight="0">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>刘名曙</t>
+        </is>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15754891140</t>
+        </is>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" customHeight="0">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>王钥杰</t>
+        </is>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15049575667</t>
+        </is>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" customHeight="0">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>孙雨楠</t>
+        </is>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15661038806</t>
+        </is>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" customHeight="0">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>高雨禄</t>
+        </is>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13739915203</t>
+        </is>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" customHeight="0">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>王俊华</t>
+        </is>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>18698449852</t>
+        </is>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" customHeight="0">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>李海鑫</t>
+        </is>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13150921551</t>
+        </is>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" customHeight="0">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>常效康</t>
+        </is>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>13139802123</t>
+        </is>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" customHeight="0">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>贾婷龙</t>
+        </is>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13948712189</t>
+        </is>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" customHeight="0">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>徐文强</t>
+        </is>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>17647462370</t>
+        </is>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" customHeight="0">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>张军</t>
+        </is>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>15935151035</t>
+        </is>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" customHeight="0">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>苏命命</t>
+        </is>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>15647127687</t>
+        </is>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" customHeight="0">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>张健</t>
+        </is>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>18047170088</t>
+        </is>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" customHeight="0">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>张聿登</t>
+        </is>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>13624716389</t>
+        </is>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" customHeight="0">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>孙恒哲</t>
+        </is>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>13303432797</t>
+        </is>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" customHeight="0">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>张祚亮</t>
+        </is>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>15947053747</t>
+        </is>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" customHeight="0">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>于占新</t>
+        </is>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>13848988137</t>
+        </is>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" customHeight="0">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>洪江</t>
+        </is>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>15647120535</t>
+        </is>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" customHeight="0">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>李晓瑞</t>
+        </is>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>15947772657</t>
+        </is>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" customHeight="0">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>李壮壮</t>
+        </is>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>19975612353</t>
+        </is>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" customHeight="0">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>寇笔锋</t>
+        </is>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>13214063788</t>
+        </is>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" customHeight="0">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>王宇杰</t>
+        </is>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>18647155960</t>
+        </is>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" customHeight="0">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>段茹晖</t>
+        </is>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>18804916775</t>
+        </is>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" customHeight="0">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>杨建</t>
+        </is>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>15540981477</t>
+        </is>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" customHeight="0">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>王昊冉</t>
+        </is>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>15661189675</t>
+        </is>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" customHeight="0">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>韦嘉欣</t>
+        </is>
+      </c>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>18504719273</t>
+        </is>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" customHeight="0">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>马英臣</t>
+        </is>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>15846604632</t>
+        </is>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" customHeight="0">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>韩续清</t>
+        </is>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>18148381017</t>
+        </is>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" customHeight="0">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>何鹏</t>
+        </is>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>15690919755</t>
+        </is>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" customHeight="0">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>刘文洋</t>
+        </is>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>18104710800</t>
+        </is>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" customHeight="0">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>张勇红</t>
+        </is>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>18048371689</t>
+        </is>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" customHeight="0">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>蒋震</t>
+        </is>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>15011427619</t>
+        </is>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" customHeight="0">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>杨聪利</t>
+        </is>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>18548114672</t>
+        </is>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" customHeight="0">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>陈小春</t>
+        </is>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>15947053745</t>
+        </is>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" customHeight="0">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>孙燕姿</t>
+        </is>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>13424703959</t>
+        </is>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" customHeight="0">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>陈好</t>
+        </is>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>13334333544</t>
+        </is>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" customHeight="0">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>古天乐</t>
+        </is>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>13424703950</t>
+        </is>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
   </sheetData>
   <legacyDrawing r:id="rId_comments_vml1"/>
 </worksheet>

--- a/plugin/saiadmin/public/export/科技人员.xlsx
+++ b/plugin/saiadmin/public/export/科技人员.xlsx
@@ -91,7 +91,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="true"/>
     <col min="2" max="2" width="15" customWidth="true"/>
@@ -157,7 +157,11 @@
           <t>18548029596</t>
         </is>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>1992-12-18</t>
+        </is>
+      </c>
     </row>
     <row r="4" spans="1:4" customHeight="0">
       <c r="A4" s="2" t="inlineStr">
@@ -173,7 +177,11 @@
           <t>18004317353</t>
         </is>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1996-10-28</t>
+        </is>
+      </c>
     </row>
     <row r="5" spans="1:4" customHeight="0">
       <c r="A5" s="2" t="inlineStr">
@@ -189,7 +197,11 @@
           <t>15661558689</t>
         </is>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1998-06-13</t>
+        </is>
+      </c>
     </row>
     <row r="6" spans="1:4" customHeight="0">
       <c r="A6" s="2" t="inlineStr">
@@ -205,7 +217,11 @@
           <t>18004892175</t>
         </is>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1980-09-25</t>
+        </is>
+      </c>
     </row>
     <row r="7" spans="1:4" customHeight="0">
       <c r="A7" s="2" t="inlineStr">
@@ -221,7 +237,11 @@
           <t>13347104770</t>
         </is>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1971-10-26</t>
+        </is>
+      </c>
     </row>
     <row r="8" spans="1:4" customHeight="0">
       <c r="A8" s="2" t="inlineStr">
@@ -237,7 +257,11 @@
           <t>13904716139</t>
         </is>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1982-10-15</t>
+        </is>
+      </c>
     </row>
     <row r="9" spans="1:4" customHeight="0">
       <c r="A9" s="2" t="inlineStr">
@@ -253,7 +277,11 @@
           <t>15326097720</t>
         </is>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1990-06-06</t>
+        </is>
+      </c>
     </row>
     <row r="10" spans="1:4" customHeight="0">
       <c r="A10" s="2" t="inlineStr">
@@ -269,7 +297,11 @@
           <t>18686010779</t>
         </is>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1995-02-04</t>
+        </is>
+      </c>
     </row>
     <row r="11" spans="1:4" customHeight="0">
       <c r="A11" s="2" t="inlineStr">
@@ -285,7 +317,11 @@
           <t>15354874693</t>
         </is>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2000-04-11</t>
+        </is>
+      </c>
     </row>
     <row r="12" spans="1:4" customHeight="0">
       <c r="A12" s="2" t="inlineStr">
@@ -301,7 +337,11 @@
           <t>13347137077</t>
         </is>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1983-07-22</t>
+        </is>
+      </c>
     </row>
     <row r="13" spans="1:4" customHeight="0">
       <c r="A13" s="2" t="inlineStr">
@@ -317,7 +357,11 @@
           <t>18049221521</t>
         </is>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1976-10-12</t>
+        </is>
+      </c>
     </row>
     <row r="14" spans="1:4" customHeight="0">
       <c r="A14" s="2" t="inlineStr">
@@ -333,7 +377,11 @@
           <t>18647390621</t>
         </is>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1992-09-03</t>
+        </is>
+      </c>
     </row>
     <row r="15" spans="1:4" customHeight="0">
       <c r="A15" s="2" t="inlineStr">
@@ -349,7 +397,11 @@
           <t>15332975807</t>
         </is>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1994-09-20</t>
+        </is>
+      </c>
     </row>
     <row r="16" spans="1:4" customHeight="0">
       <c r="A16" s="2" t="inlineStr">
@@ -365,7 +417,11 @@
           <t>15148039951</t>
         </is>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1988-08-08</t>
+        </is>
+      </c>
     </row>
     <row r="17" spans="1:4" customHeight="0">
       <c r="A17" s="2" t="inlineStr">
@@ -381,7 +437,11 @@
           <t>15754891140</t>
         </is>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1994-11-27</t>
+        </is>
+      </c>
     </row>
     <row r="18" spans="1:4" customHeight="0">
       <c r="A18" s="2" t="inlineStr">
@@ -397,7 +457,11 @@
           <t>15049575667</t>
         </is>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1999-11-11</t>
+        </is>
+      </c>
     </row>
     <row r="19" spans="1:4" customHeight="0">
       <c r="A19" s="2" t="inlineStr">
@@ -413,7 +477,11 @@
           <t>15661038806</t>
         </is>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1995-04-19</t>
+        </is>
+      </c>
     </row>
     <row r="20" spans="1:4" customHeight="0">
       <c r="A20" s="2" t="inlineStr">
@@ -429,7 +497,11 @@
           <t>13739915203</t>
         </is>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1993-09-17</t>
+        </is>
+      </c>
     </row>
     <row r="21" spans="1:4" customHeight="0">
       <c r="A21" s="2" t="inlineStr">
@@ -445,7 +517,11 @@
           <t>18698449852</t>
         </is>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1991-08-22</t>
+        </is>
+      </c>
     </row>
     <row r="22" spans="1:4" customHeight="0">
       <c r="A22" s="2" t="inlineStr">
@@ -461,7 +537,11 @@
           <t>13150921551</t>
         </is>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1981-12-17</t>
+        </is>
+      </c>
     </row>
     <row r="23" spans="1:4" customHeight="0">
       <c r="A23" s="2" t="inlineStr">
@@ -477,7 +557,11 @@
           <t>13139802123</t>
         </is>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1995-07-04</t>
+        </is>
+      </c>
     </row>
     <row r="24" spans="1:4" customHeight="0">
       <c r="A24" s="2" t="inlineStr">
@@ -493,7 +577,11 @@
           <t>13948712189</t>
         </is>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1993-09-15</t>
+        </is>
+      </c>
     </row>
     <row r="25" spans="1:4" customHeight="0">
       <c r="A25" s="2" t="inlineStr">
@@ -509,7 +597,11 @@
           <t>17647462370</t>
         </is>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1998-10-15</t>
+        </is>
+      </c>
     </row>
     <row r="26" spans="1:4" customHeight="0">
       <c r="A26" s="2" t="inlineStr">
@@ -525,7 +617,11 @@
           <t>15935151035</t>
         </is>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1975-11-05</t>
+        </is>
+      </c>
     </row>
     <row r="27" spans="1:4" customHeight="0">
       <c r="A27" s="2" t="inlineStr">
@@ -541,7 +637,11 @@
           <t>15647127687</t>
         </is>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1978-07-30</t>
+        </is>
+      </c>
     </row>
     <row r="28" spans="1:4" customHeight="0">
       <c r="A28" s="2" t="inlineStr">
@@ -557,7 +657,11 @@
           <t>18047170088</t>
         </is>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1990-06-03</t>
+        </is>
+      </c>
     </row>
     <row r="29" spans="1:4" customHeight="0">
       <c r="A29" s="2" t="inlineStr">
@@ -573,7 +677,11 @@
           <t>13624716389</t>
         </is>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1992-10-24</t>
+        </is>
+      </c>
     </row>
     <row r="30" spans="1:4" customHeight="0">
       <c r="A30" s="2" t="inlineStr">
@@ -589,7 +697,11 @@
           <t>13303432797</t>
         </is>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1987-07-16</t>
+        </is>
+      </c>
     </row>
     <row r="31" spans="1:4" customHeight="0">
       <c r="A31" s="2" t="inlineStr">
@@ -605,7 +717,11 @@
           <t>15947053747</t>
         </is>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>1985-12-01</t>
+        </is>
+      </c>
     </row>
     <row r="32" spans="1:4" customHeight="0">
       <c r="A32" s="2" t="inlineStr">
@@ -621,7 +737,11 @@
           <t>13848988137</t>
         </is>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1995-07-27</t>
+        </is>
+      </c>
     </row>
     <row r="33" spans="1:4" customHeight="0">
       <c r="A33" s="2" t="inlineStr">
@@ -637,7 +757,11 @@
           <t>15647120535</t>
         </is>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1972-06-18</t>
+        </is>
+      </c>
     </row>
     <row r="34" spans="1:4" customHeight="0">
       <c r="A34" s="2" t="inlineStr">
@@ -653,7 +777,11 @@
           <t>15947772657</t>
         </is>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>1996-10-29</t>
+        </is>
+      </c>
     </row>
     <row r="35" spans="1:4" customHeight="0">
       <c r="A35" s="2" t="inlineStr">
@@ -669,7 +797,11 @@
           <t>19975612353</t>
         </is>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>1995-08-13</t>
+        </is>
+      </c>
     </row>
     <row r="36" spans="1:4" customHeight="0">
       <c r="A36" s="2" t="inlineStr">
@@ -685,7 +817,11 @@
           <t>13214063788</t>
         </is>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>1981-01-06</t>
+        </is>
+      </c>
     </row>
     <row r="37" spans="1:4" customHeight="0">
       <c r="A37" s="2" t="inlineStr">
@@ -701,7 +837,11 @@
           <t>18647155960</t>
         </is>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>1985-10-21</t>
+        </is>
+      </c>
     </row>
     <row r="38" spans="1:4" customHeight="0">
       <c r="A38" s="2" t="inlineStr">
@@ -717,7 +857,11 @@
           <t>18804916775</t>
         </is>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>1993-02-20</t>
+        </is>
+      </c>
     </row>
     <row r="39" spans="1:4" customHeight="0">
       <c r="A39" s="2" t="inlineStr">
@@ -733,7 +877,11 @@
           <t>15540981477</t>
         </is>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>1986-10-05</t>
+        </is>
+      </c>
     </row>
     <row r="40" spans="1:4" customHeight="0">
       <c r="A40" s="2" t="inlineStr">
@@ -749,7 +897,11 @@
           <t>15661189675</t>
         </is>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>2000-01-20</t>
+        </is>
+      </c>
     </row>
     <row r="41" spans="1:4" customHeight="0">
       <c r="A41" s="2" t="inlineStr">
@@ -765,7 +917,11 @@
           <t>18504719273</t>
         </is>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>1994-08-11</t>
+        </is>
+      </c>
     </row>
     <row r="42" spans="1:4" customHeight="0">
       <c r="A42" s="2" t="inlineStr">
@@ -781,7 +937,11 @@
           <t>15846604632</t>
         </is>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>1988-06-20</t>
+        </is>
+      </c>
     </row>
     <row r="43" spans="1:4" customHeight="0">
       <c r="A43" s="2" t="inlineStr">
@@ -797,7 +957,11 @@
           <t>18148381017</t>
         </is>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>1996-11-09</t>
+        </is>
+      </c>
     </row>
     <row r="44" spans="1:4" customHeight="0">
       <c r="A44" s="2" t="inlineStr">
@@ -813,7 +977,11 @@
           <t>15690919755</t>
         </is>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>1980-02-02</t>
+        </is>
+      </c>
     </row>
     <row r="45" spans="1:4" customHeight="0">
       <c r="A45" s="2" t="inlineStr">
@@ -829,7 +997,11 @@
           <t>18104710800</t>
         </is>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>1990-02-01</t>
+        </is>
+      </c>
     </row>
     <row r="46" spans="1:4" customHeight="0">
       <c r="A46" s="2" t="inlineStr">
@@ -845,7 +1017,11 @@
           <t>18048371689</t>
         </is>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>1989-02-08</t>
+        </is>
+      </c>
     </row>
     <row r="47" spans="1:4" customHeight="0">
       <c r="A47" s="2" t="inlineStr">
@@ -861,7 +1037,11 @@
           <t>15011427619</t>
         </is>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>1986-12-20</t>
+        </is>
+      </c>
     </row>
     <row r="48" spans="1:4" customHeight="0">
       <c r="A48" s="2" t="inlineStr">
@@ -877,7 +1057,11 @@
           <t>18548114672</t>
         </is>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>1995-08-21</t>
+        </is>
+      </c>
     </row>
     <row r="49" spans="1:4" customHeight="0">
       <c r="A49" s="2" t="inlineStr">
@@ -893,7 +1077,11 @@
           <t>15947053745</t>
         </is>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>1992-07-20</t>
+        </is>
+      </c>
     </row>
     <row r="50" spans="1:4" customHeight="0">
       <c r="A50" s="2" t="inlineStr">
@@ -909,7 +1097,11 @@
           <t>13424703959</t>
         </is>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>1980-11-26</t>
+        </is>
+      </c>
     </row>
     <row r="51" spans="1:4" customHeight="0">
       <c r="A51" s="2" t="inlineStr">
@@ -925,7 +1117,11 @@
           <t>13334333544</t>
         </is>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>1980-11-20</t>
+        </is>
+      </c>
     </row>
     <row r="52" spans="1:4" customHeight="0">
       <c r="A52" s="2" t="inlineStr">
@@ -941,7 +1137,31 @@
           <t>13424703950</t>
         </is>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>1985-12-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" spans="1:4" customHeight="0">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>岳云鹏</t>
+        </is>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>15947053744</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>1984-03-14</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <legacyDrawing r:id="rId_comments_vml1"/>
